--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>132.7307</v>
+        <v>128.284162</v>
       </c>
       <c r="H2">
-        <v>398.1921</v>
+        <v>384.852486</v>
       </c>
       <c r="I2">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610217</v>
       </c>
       <c r="J2">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610216</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3079056666666667</v>
+        <v>0.1717676666666667</v>
       </c>
       <c r="N2">
-        <v>0.923717</v>
+        <v>0.515303</v>
       </c>
       <c r="O2">
-        <v>0.3525353492524075</v>
+        <v>0.6917552331052554</v>
       </c>
       <c r="P2">
-        <v>0.3525353492524075</v>
+        <v>0.6917552331052554</v>
       </c>
       <c r="Q2">
-        <v>40.86853467063334</v>
+        <v>22.03507117702867</v>
       </c>
       <c r="R2">
-        <v>367.8168120357</v>
+        <v>198.315640593258</v>
       </c>
       <c r="S2">
-        <v>0.00910824138712488</v>
+        <v>0.01908941525559559</v>
       </c>
       <c r="T2">
-        <v>0.009108241387124877</v>
+        <v>0.01908941525559559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>132.7307</v>
+        <v>128.284162</v>
       </c>
       <c r="H3">
-        <v>398.1921</v>
+        <v>384.852486</v>
       </c>
       <c r="I3">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610217</v>
       </c>
       <c r="J3">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610216</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1717676666666667</v>
+        <v>0.038916</v>
       </c>
       <c r="N3">
-        <v>0.515303</v>
+        <v>0.116748</v>
       </c>
       <c r="O3">
-        <v>0.1966646960874525</v>
+        <v>0.1567253440297696</v>
       </c>
       <c r="P3">
-        <v>0.1966646960874525</v>
+        <v>0.1567253440297696</v>
       </c>
       <c r="Q3">
-        <v>22.79884263403333</v>
+        <v>4.992306448392</v>
       </c>
       <c r="R3">
-        <v>205.1895837063</v>
+        <v>44.930758035528</v>
       </c>
       <c r="S3">
-        <v>0.00508110613045945</v>
+        <v>0.004324933199031006</v>
       </c>
       <c r="T3">
-        <v>0.005081106130459448</v>
+        <v>0.004324933199031006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>132.7307</v>
+        <v>128.284162</v>
       </c>
       <c r="H4">
-        <v>398.1921</v>
+        <v>384.852486</v>
       </c>
       <c r="I4">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610217</v>
       </c>
       <c r="J4">
-        <v>0.02583639174465758</v>
+        <v>0.02759562102610216</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,33 +682,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.06696300000000001</v>
+        <v>0.03762333333333334</v>
       </c>
       <c r="N4">
-        <v>0.200889</v>
+        <v>0.11287</v>
       </c>
       <c r="O4">
-        <v>0.07666901635020998</v>
+        <v>0.1515194228649749</v>
       </c>
       <c r="P4">
-        <v>0.07666901635020996</v>
+        <v>0.1515194228649749</v>
       </c>
       <c r="Q4">
-        <v>8.888045864100002</v>
+        <v>4.826477788313334</v>
       </c>
       <c r="R4">
-        <v>79.99241277690001</v>
+        <v>43.43830009482</v>
       </c>
       <c r="S4">
-        <v>0.001980850741101582</v>
+        <v>0.004181272571475568</v>
       </c>
       <c r="T4">
-        <v>0.001980850741101582</v>
+        <v>0.004181272571475567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>132.7307</v>
+        <v>166.2925923333333</v>
       </c>
       <c r="H5">
-        <v>398.1921</v>
+        <v>498.877777</v>
       </c>
       <c r="I5">
-        <v>0.02583639174465758</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="J5">
-        <v>0.02583639174465758</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3267673333333334</v>
+        <v>0.1717676666666667</v>
       </c>
       <c r="N5">
-        <v>0.980302</v>
+        <v>0.515303</v>
       </c>
       <c r="O5">
-        <v>0.37413093830993</v>
+        <v>0.6917552331052554</v>
       </c>
       <c r="P5">
-        <v>0.3741309383099299</v>
+        <v>0.6917552331052554</v>
       </c>
       <c r="Q5">
-        <v>43.37205689046667</v>
+        <v>28.56369056904789</v>
       </c>
       <c r="R5">
-        <v>390.3485120142</v>
+        <v>257.073215121431</v>
       </c>
       <c r="S5">
-        <v>0.009666193485971671</v>
+        <v>0.0247452865536158</v>
       </c>
       <c r="T5">
-        <v>0.009666193485971667</v>
+        <v>0.0247452865536158</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>498.877777</v>
       </c>
       <c r="I6">
-        <v>0.03236930536611832</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="J6">
-        <v>0.03236930536611832</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3079056666666667</v>
+        <v>0.038916</v>
       </c>
       <c r="N6">
-        <v>0.923717</v>
+        <v>0.116748</v>
       </c>
       <c r="O6">
-        <v>0.3525353492524075</v>
+        <v>0.1567253440297696</v>
       </c>
       <c r="P6">
-        <v>0.3525353492524075</v>
+        <v>0.1567253440297696</v>
       </c>
       <c r="Q6">
-        <v>51.20243150412323</v>
+        <v>6.471442523244001</v>
       </c>
       <c r="R6">
-        <v>460.821883537109</v>
+        <v>58.24298270919601</v>
       </c>
       <c r="S6">
-        <v>0.01141132437230235</v>
+        <v>0.005606337852800271</v>
       </c>
       <c r="T6">
-        <v>0.01141132437230235</v>
+        <v>0.005606337852800272</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>498.877777</v>
       </c>
       <c r="I7">
-        <v>0.03236930536611832</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="J7">
-        <v>0.03236930536611832</v>
+        <v>0.03577173741430972</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,33 +868,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1717676666666667</v>
+        <v>0.03762333333333334</v>
       </c>
       <c r="N7">
-        <v>0.515303</v>
+        <v>0.11287</v>
       </c>
       <c r="O7">
-        <v>0.1966646960874525</v>
+        <v>0.1515194228649749</v>
       </c>
       <c r="P7">
-        <v>0.1966646960874525</v>
+        <v>0.1515194228649749</v>
       </c>
       <c r="Q7">
-        <v>28.56369056904789</v>
+        <v>6.256481632221112</v>
       </c>
       <c r="R7">
-        <v>257.073215121431</v>
+        <v>56.30833468999001</v>
       </c>
       <c r="S7">
-        <v>0.006365899602389606</v>
+        <v>0.00542011300789364</v>
       </c>
       <c r="T7">
-        <v>0.006365899602389605</v>
+        <v>0.00542011300789364</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>166.2925923333333</v>
+        <v>1925.076375666667</v>
       </c>
       <c r="H8">
-        <v>498.877777</v>
+        <v>5775.229127000001</v>
       </c>
       <c r="I8">
-        <v>0.03236930536611832</v>
+        <v>0.4141094058766164</v>
       </c>
       <c r="J8">
-        <v>0.03236930536611832</v>
+        <v>0.4141094058766165</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.06696300000000001</v>
+        <v>0.1717676666666667</v>
       </c>
       <c r="N8">
-        <v>0.200889</v>
+        <v>0.515303</v>
       </c>
       <c r="O8">
-        <v>0.07666901635020998</v>
+        <v>0.6917552331052554</v>
       </c>
       <c r="P8">
-        <v>0.07666901635020996</v>
+        <v>0.6917552331052554</v>
       </c>
       <c r="Q8">
-        <v>11.135450860417</v>
+        <v>330.6658772033867</v>
       </c>
       <c r="R8">
-        <v>100.219057743753</v>
+        <v>2975.992894830481</v>
       </c>
       <c r="S8">
-        <v>0.002481722802359865</v>
+        <v>0.2864623485932576</v>
       </c>
       <c r="T8">
-        <v>0.002481722802359865</v>
+        <v>0.2864623485932577</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>166.2925923333333</v>
+        <v>1925.076375666667</v>
       </c>
       <c r="H9">
-        <v>498.877777</v>
+        <v>5775.229127000001</v>
       </c>
       <c r="I9">
-        <v>0.03236930536611832</v>
+        <v>0.4141094058766164</v>
       </c>
       <c r="J9">
-        <v>0.03236930536611832</v>
+        <v>0.4141094058766165</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3267673333333334</v>
+        <v>0.038916</v>
       </c>
       <c r="N9">
-        <v>0.980302</v>
+        <v>0.116748</v>
       </c>
       <c r="O9">
-        <v>0.37413093830993</v>
+        <v>0.1567253440297696</v>
       </c>
       <c r="P9">
-        <v>0.3741309383099299</v>
+        <v>0.1567253440297696</v>
       </c>
       <c r="Q9">
-        <v>54.33898694985045</v>
+        <v>74.916272235444</v>
       </c>
       <c r="R9">
-        <v>489.050882548654</v>
+        <v>674.2464501189961</v>
       </c>
       <c r="S9">
-        <v>0.0121103585890665</v>
+        <v>0.0649014391019762</v>
       </c>
       <c r="T9">
-        <v>0.0121103585890665</v>
+        <v>0.06490143910197622</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2533.363444</v>
+        <v>1925.076375666667</v>
       </c>
       <c r="H10">
-        <v>7600.090332</v>
+        <v>5775.229127000001</v>
       </c>
       <c r="I10">
-        <v>0.4931260844008123</v>
+        <v>0.4141094058766164</v>
       </c>
       <c r="J10">
-        <v>0.4931260844008122</v>
+        <v>0.4141094058766165</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,33 +1054,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3079056666666667</v>
+        <v>0.03762333333333334</v>
       </c>
       <c r="N10">
-        <v>0.923717</v>
+        <v>0.11287</v>
       </c>
       <c r="O10">
-        <v>0.3525353492524075</v>
+        <v>0.1515194228649749</v>
       </c>
       <c r="P10">
-        <v>0.3525353492524075</v>
+        <v>0.1515194228649749</v>
       </c>
       <c r="Q10">
-        <v>780.0369601337827</v>
+        <v>72.42779017383224</v>
       </c>
       <c r="R10">
-        <v>7020.332641204044</v>
+        <v>651.85011156449</v>
       </c>
       <c r="S10">
-        <v>0.1738443763897126</v>
+        <v>0.06274561818138258</v>
       </c>
       <c r="T10">
-        <v>0.1738443763897125</v>
+        <v>0.06274561818138259</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2533.363444</v>
+        <v>37.52106933333334</v>
       </c>
       <c r="H11">
-        <v>7600.090332</v>
+        <v>112.563208</v>
       </c>
       <c r="I11">
-        <v>0.4931260844008123</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="J11">
-        <v>0.4931260844008122</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,27 +1122,27 @@
         <v>0.515303</v>
       </c>
       <c r="O11">
-        <v>0.1966646960874525</v>
+        <v>0.6917552331052554</v>
       </c>
       <c r="P11">
-        <v>0.1966646960874525</v>
+        <v>0.6917552331052554</v>
       </c>
       <c r="Q11">
-        <v>435.1499275945106</v>
+        <v>6.444906530224889</v>
       </c>
       <c r="R11">
-        <v>3916.349348350595</v>
+        <v>58.004158772024</v>
       </c>
       <c r="S11">
-        <v>0.09698049152148119</v>
+        <v>0.005583349200488157</v>
       </c>
       <c r="T11">
-        <v>0.09698049152148117</v>
+        <v>0.005583349200488157</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2533.363444</v>
+        <v>37.52106933333334</v>
       </c>
       <c r="H12">
-        <v>7600.090332</v>
+        <v>112.563208</v>
       </c>
       <c r="I12">
-        <v>0.4931260844008123</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="J12">
-        <v>0.4931260844008122</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,33 +1178,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.06696300000000001</v>
+        <v>0.038916</v>
       </c>
       <c r="N12">
-        <v>0.200889</v>
+        <v>0.116748</v>
       </c>
       <c r="O12">
-        <v>0.07666901635020998</v>
+        <v>0.1567253440297696</v>
       </c>
       <c r="P12">
-        <v>0.07666901635020996</v>
+        <v>0.1567253440297696</v>
       </c>
       <c r="Q12">
-        <v>169.641616300572</v>
+        <v>1.460169934176</v>
       </c>
       <c r="R12">
-        <v>1526.774546705148</v>
+        <v>13.141529407584</v>
       </c>
       <c r="S12">
-        <v>0.03780749182764091</v>
+        <v>0.001264973913325929</v>
       </c>
       <c r="T12">
-        <v>0.03780749182764089</v>
+        <v>0.00126497391332593</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2533.363444</v>
+        <v>37.52106933333334</v>
       </c>
       <c r="H13">
-        <v>7600.090332</v>
+        <v>112.563208</v>
       </c>
       <c r="I13">
-        <v>0.4931260844008123</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="J13">
-        <v>0.4931260844008122</v>
+        <v>0.008071278587116393</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3267673333333334</v>
+        <v>0.03762333333333334</v>
       </c>
       <c r="N13">
-        <v>0.980302</v>
+        <v>0.11287</v>
       </c>
       <c r="O13">
-        <v>0.37413093830993</v>
+        <v>0.1515194228649749</v>
       </c>
       <c r="P13">
-        <v>0.3741309383099299</v>
+        <v>0.1515194228649749</v>
       </c>
       <c r="Q13">
-        <v>827.8204169600294</v>
+        <v>1.411667698551111</v>
       </c>
       <c r="R13">
-        <v>7450.383752640264</v>
+        <v>12.70500928696</v>
       </c>
       <c r="S13">
-        <v>0.1844937246619776</v>
+        <v>0.001222955473302306</v>
       </c>
       <c r="T13">
-        <v>0.1844937246619776</v>
+        <v>0.001222955473302306</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>36.77866766666667</v>
+        <v>2391.540242666666</v>
       </c>
       <c r="H14">
-        <v>110.336003</v>
+        <v>7174.620728</v>
       </c>
       <c r="I14">
-        <v>0.007159067688805765</v>
+        <v>0.5144519570958551</v>
       </c>
       <c r="J14">
-        <v>0.007159067688805764</v>
+        <v>0.5144519570958552</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3079056666666667</v>
+        <v>0.1717676666666667</v>
       </c>
       <c r="N14">
-        <v>0.923717</v>
+        <v>0.515303</v>
       </c>
       <c r="O14">
-        <v>0.3525353492524075</v>
+        <v>0.6917552331052554</v>
       </c>
       <c r="P14">
-        <v>0.3525353492524075</v>
+        <v>0.6917552331052554</v>
       </c>
       <c r="Q14">
-        <v>11.32436018701678</v>
+        <v>410.789287222287</v>
       </c>
       <c r="R14">
-        <v>101.919241683151</v>
+        <v>3697.103585000584</v>
       </c>
       <c r="S14">
-        <v>0.002523824427994766</v>
+        <v>0.3558748335022981</v>
       </c>
       <c r="T14">
-        <v>0.002523824427994766</v>
+        <v>0.3558748335022982</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>36.77866766666667</v>
+        <v>2391.540242666666</v>
       </c>
       <c r="H15">
-        <v>110.336003</v>
+        <v>7174.620728</v>
       </c>
       <c r="I15">
-        <v>0.007159067688805765</v>
+        <v>0.5144519570958551</v>
       </c>
       <c r="J15">
-        <v>0.007159067688805764</v>
+        <v>0.5144519570958552</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,33 +1364,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.1717676666666667</v>
+        <v>0.038916</v>
       </c>
       <c r="N15">
-        <v>0.515303</v>
+        <v>0.116748</v>
       </c>
       <c r="O15">
-        <v>0.1966646960874525</v>
+        <v>0.1567253440297696</v>
       </c>
       <c r="P15">
-        <v>0.1966646960874525</v>
+        <v>0.1567253440297696</v>
       </c>
       <c r="Q15">
-        <v>6.317385928212111</v>
+        <v>93.06918008361599</v>
       </c>
       <c r="R15">
-        <v>56.856473353909</v>
+        <v>837.622620752544</v>
       </c>
       <c r="S15">
-        <v>0.001407935871288487</v>
+        <v>0.08062765996263616</v>
       </c>
       <c r="T15">
-        <v>0.001407935871288486</v>
+        <v>0.0806276599626362</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>36.77866766666667</v>
+        <v>2391.540242666666</v>
       </c>
       <c r="H16">
-        <v>110.336003</v>
+        <v>7174.620728</v>
       </c>
       <c r="I16">
-        <v>0.007159067688805765</v>
+        <v>0.5144519570958551</v>
       </c>
       <c r="J16">
-        <v>0.007159067688805764</v>
+        <v>0.5144519570958552</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,338 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.06696300000000001</v>
+        <v>0.03762333333333334</v>
       </c>
       <c r="N16">
-        <v>0.200889</v>
+        <v>0.11287</v>
       </c>
       <c r="O16">
-        <v>0.07666901635020998</v>
+        <v>0.1515194228649749</v>
       </c>
       <c r="P16">
-        <v>0.07666901635020996</v>
+        <v>0.1515194228649749</v>
       </c>
       <c r="Q16">
-        <v>2.462809922963001</v>
+        <v>89.97771572992889</v>
       </c>
       <c r="R16">
-        <v>22.165289306667</v>
+        <v>809.7994415693599</v>
       </c>
       <c r="S16">
-        <v>0.0005488786776853092</v>
+        <v>0.07794946363092081</v>
       </c>
       <c r="T16">
-        <v>0.000548878677685309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>36.77866766666667</v>
-      </c>
-      <c r="H17">
-        <v>110.336003</v>
-      </c>
-      <c r="I17">
-        <v>0.007159067688805765</v>
-      </c>
-      <c r="J17">
-        <v>0.007159067688805764</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.3267673333333334</v>
-      </c>
-      <c r="N17">
-        <v>0.980302</v>
-      </c>
-      <c r="O17">
-        <v>0.37413093830993</v>
-      </c>
-      <c r="P17">
-        <v>0.3741309383099299</v>
-      </c>
-      <c r="Q17">
-        <v>12.01806715698956</v>
-      </c>
-      <c r="R17">
-        <v>108.162604412906</v>
-      </c>
-      <c r="S17">
-        <v>0.002678428711837203</v>
-      </c>
-      <c r="T17">
-        <v>0.002678428711837202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>2268.188964666666</v>
-      </c>
-      <c r="H18">
-        <v>6804.566894</v>
-      </c>
-      <c r="I18">
-        <v>0.4415091507996061</v>
-      </c>
-      <c r="J18">
-        <v>0.4415091507996061</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.3079056666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.923717</v>
-      </c>
-      <c r="O18">
-        <v>0.3525353492524075</v>
-      </c>
-      <c r="P18">
-        <v>0.3525353492524075</v>
-      </c>
-      <c r="Q18">
-        <v>698.3882352916664</v>
-      </c>
-      <c r="R18">
-        <v>6285.494117624998</v>
-      </c>
-      <c r="S18">
-        <v>0.155647582675273</v>
-      </c>
-      <c r="T18">
-        <v>0.155647582675273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2268.188964666666</v>
-      </c>
-      <c r="H19">
-        <v>6804.566894</v>
-      </c>
-      <c r="I19">
-        <v>0.4415091507996061</v>
-      </c>
-      <c r="J19">
-        <v>0.4415091507996061</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.1717676666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.515303</v>
-      </c>
-      <c r="O19">
-        <v>0.1966646960874525</v>
-      </c>
-      <c r="P19">
-        <v>0.1966646960874525</v>
-      </c>
-      <c r="Q19">
-        <v>389.6015260198757</v>
-      </c>
-      <c r="R19">
-        <v>3506.413734178881</v>
-      </c>
-      <c r="S19">
-        <v>0.08682926296183377</v>
-      </c>
-      <c r="T19">
-        <v>0.08682926296183376</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2268.188964666666</v>
-      </c>
-      <c r="H20">
-        <v>6804.566894</v>
-      </c>
-      <c r="I20">
-        <v>0.4415091507996061</v>
-      </c>
-      <c r="J20">
-        <v>0.4415091507996061</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.06696300000000001</v>
-      </c>
-      <c r="N20">
-        <v>0.200889</v>
-      </c>
-      <c r="O20">
-        <v>0.07666901635020998</v>
-      </c>
-      <c r="P20">
-        <v>0.07666901635020996</v>
-      </c>
-      <c r="Q20">
-        <v>151.884737640974</v>
-      </c>
-      <c r="R20">
-        <v>1366.962638768766</v>
-      </c>
-      <c r="S20">
-        <v>0.03385007230142233</v>
-      </c>
-      <c r="T20">
-        <v>0.03385007230142232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2268.188964666666</v>
-      </c>
-      <c r="H21">
-        <v>6804.566894</v>
-      </c>
-      <c r="I21">
-        <v>0.4415091507996061</v>
-      </c>
-      <c r="J21">
-        <v>0.4415091507996061</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.3267673333333334</v>
-      </c>
-      <c r="N21">
-        <v>0.980302</v>
-      </c>
-      <c r="O21">
-        <v>0.37413093830993</v>
-      </c>
-      <c r="P21">
-        <v>0.3741309383099299</v>
-      </c>
-      <c r="Q21">
-        <v>741.1700594802209</v>
-      </c>
-      <c r="R21">
-        <v>6670.530535321987</v>
-      </c>
-      <c r="S21">
-        <v>0.165182232861077</v>
-      </c>
-      <c r="T21">
-        <v>0.165182232861077</v>
+        <v>0.07794946363092084</v>
       </c>
     </row>
   </sheetData>
